--- a/Documentation/Resistive Shunt Parameters.xlsx
+++ b/Documentation/Resistive Shunt Parameters.xlsx
@@ -865,11 +865,6 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>

--- a/Documentation/Resistive Shunt Parameters.xlsx
+++ b/Documentation/Resistive Shunt Parameters.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="320" windowWidth="36860" windowHeight="19980" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="320" windowWidth="36860" windowHeight="19980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="12-bit" sheetId="1" r:id="rId1"/>
+    <sheet name="16-bit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="18">
   <si>
     <t>Tolerance</t>
   </si>
@@ -107,6 +108,15 @@
   <si>
     <t>Overlap</t>
   </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>(uV/LSB)</t>
+  </si>
+  <si>
+    <t>(uA/LSB)</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="200">
+  <cellStyleXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -378,8 +388,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -403,6 +423,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -410,7 +436,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="200">
+  <cellStyles count="210">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -510,6 +536,11 @@
     <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -609,6 +640,11 @@
     <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -643,7 +679,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$4</c:f>
+              <c:f>'12-bit'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -659,7 +695,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$18</c:f>
+              <c:f>'12-bit'!$A$5:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -692,7 +728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$18</c:f>
+              <c:f>'12-bit'!$F$5:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -747,7 +783,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$4</c:f>
+              <c:f>'12-bit'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -759,7 +795,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$18</c:f>
+              <c:f>'12-bit'!$L$5:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -819,11 +855,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2088137352"/>
-        <c:axId val="-2084080568"/>
+        <c:axId val="2122199560"/>
+        <c:axId val="2122202536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088137352"/>
+        <c:axId val="2122199560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -833,7 +869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084080568"/>
+        <c:crossAx val="2122202536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -841,7 +877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084080568"/>
+        <c:axId val="2122202536"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -854,7 +890,228 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088137352"/>
+        <c:crossAx val="2122199560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'16-bit'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min (A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'16-bit'!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'16-bit'!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.00201416015625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.01416015625E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.01416015625E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.01416015625E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'16-bit'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range (A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'16-bit'!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'16-bit'!$L$5:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.99798583984375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0599798583984375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000599798583984375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.99798583984375E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2128318392"/>
+        <c:axId val="-2128315416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2128318392"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128315416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128315416"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128318392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -990,7 +1247,144 @@
             <a:rPr lang="en-US" sz="1500" baseline="0"/>
             <a:t>- Minimum input voltage value chosen to be &gt; 20 LSBs</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" baseline="0"/>
+            <a:t>- Uses 12-bit ADC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1500"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11087100" cy="2654300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>EE4951 Shunt Resistance Calculation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" baseline="0"/>
+            <a:t> Assumes an amp gain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" baseline="0"/>
+            <a:t>- Minimum input voltage value chosen to be &gt; 20 LSBs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" baseline="0"/>
+            <a:t>- Uses 16-bit ADC</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1323,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1347,41 +1741,41 @@
   <sheetData>
     <row r="1" spans="1:31" ht="209" customHeight="1"/>
     <row r="3" spans="1:31" ht="28" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="X3" s="2"/>
@@ -1394,8 +1788,8 @@
       <c r="AE3" s="2"/>
     </row>
     <row r="4" spans="1:31" ht="28" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1405,32 +1799,32 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1465,11 +1859,11 @@
         <v>32.2265625</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H18" si="2">IF(A5,IF(F5&gt;1,"A",IF(F5&gt;0.001,"mA",IF(F5&gt;0.000001,"uA",IF(F5&gt;0.000000001,"nA","")))),"")</f>
+        <f t="shared" ref="H5:H12" si="2">IF(A5,IF(F5&gt;1,"A",IF(F5&gt;0.001,"mA",IF(F5&gt;0.000001,"uA",IF(F5&gt;0.000000001,"nA","")))),"")</f>
         <v>mA</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="3">IF(A5,D5/A5,"")</f>
+        <f t="shared" ref="I5" si="3">IF(A5,D5/A5,"")</f>
         <v>6.6000000000000005</v>
       </c>
       <c r="J5" s="4">
@@ -1492,15 +1886,15 @@
         <f>IF(A5,IF(L5&gt;1,"A",IF(L5&gt;0.001,"mA",IF(L5&gt;0.000001,"uA",IF(L5&gt;0.000000001,"nA","")))),"")</f>
         <v>A</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="11">
         <f>IF(A6,I6-F5,"")</f>
         <v>0.29777343750000002</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="13">
         <f>IF(A6,IF(O5&gt;1,O5,IF(O5&gt;0.001,O5*1000,IF(O5&gt;0.000001,1000000*O5,IF(O5&gt;O5&gt;0.000000001,O5*1000000000,"")))),"")</f>
         <v>297.7734375</v>
       </c>
-      <c r="Q5" s="12" t="str">
+      <c r="Q5" s="14" t="str">
         <f>IF(A6,IF(G5,IF(O5&gt;1,"A",IF(O5&gt;0.001,"mA",IF(O5&gt;0.000001,"uA",IF(O5&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
@@ -1568,18 +1962,18 @@
         <f t="shared" ref="N6:N18" si="12">IF(A6,IF(L6&gt;1,"A",IF(L6&gt;0.001,"mA",IF(L6&gt;0.000001,"uA",IF(L6&gt;0.000000001,"nA","")))),"")</f>
         <v>mA</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="10">
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="11">
         <f>IF(A7,I7-F6,"")</f>
         <v>3.1388671875000003E-2</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="13">
         <f>IF(A7,IF(R6&gt;1,R6,IF(R6&gt;0.001,R6*1000,IF(R6&gt;0.000001,1000000*R6,IF(R6&gt;R6&gt;0.000000001,R6*1000000000,"")))),"")</f>
         <v>31.388671875000004</v>
       </c>
-      <c r="T6" s="12" t="str">
+      <c r="T6" s="14" t="str">
         <f>IF(A7,IF(J6,IF(R6&gt;1,"A",IF(R6&gt;0.001,"mA",IF(R6&gt;0.000001,"uA",IF(R6&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
@@ -1646,21 +2040,21 @@
         <f t="shared" si="12"/>
         <v>mA</v>
       </c>
-      <c r="O7" s="10">
-        <f t="shared" ref="O7:O18" si="15">IF(A8,I8-F7,"")</f>
+      <c r="O7" s="11">
+        <f t="shared" ref="O7" si="15">IF(A8,I8-F7,"")</f>
         <v>3.1388671874999999E-3</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="13">
         <f t="shared" ref="P7" si="16">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
         <v>3.1388671874999998</v>
       </c>
-      <c r="Q7" s="12" t="str">
-        <f t="shared" ref="Q7:Q18" si="17">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
+      <c r="Q7" s="14" t="str">
+        <f t="shared" ref="Q7" si="17">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
       <c r="U7" s="4">
         <f t="shared" si="6"/>
         <v>1.089</v>
@@ -1724,18 +2118,18 @@
         <f t="shared" si="12"/>
         <v>mA</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="10">
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="11">
         <f t="shared" ref="R8" si="18">IF(A9,I9-F8,"")</f>
         <v>3.1388671874999998E-4</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="13">
         <f>IF(A9,IF(R8&gt;1,R8,IF(R8&gt;0.001,R8*1000,IF(R8&gt;0.000001,1000000*R8,IF(R8&gt;R8&gt;0.000000001,R8*1000000000,"")))),"")</f>
         <v>313.88671875</v>
       </c>
-      <c r="T8" s="12" t="str">
+      <c r="T8" s="14" t="str">
         <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
@@ -1802,21 +2196,21 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O9" s="10">
-        <f t="shared" ref="O9:O18" si="19">IF(A10,I10-F9,"")</f>
+      <c r="O9" s="11">
+        <f t="shared" ref="O9" si="19">IF(A10,I10-F9,"")</f>
         <v>3.1388671875000004E-5</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="13">
         <f t="shared" ref="P9" si="20">IF(A10,IF(O9&gt;1,O9,IF(O9&gt;0.001,O9*1000,IF(O9&gt;0.000001,1000000*O9,IF(O9&gt;O9&gt;0.000000001,O9*1000000000,"")))),"")</f>
         <v>31.388671875000004</v>
       </c>
-      <c r="Q9" s="12" t="str">
-        <f t="shared" ref="Q9:Q18" si="21">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
+      <c r="Q9" s="14" t="str">
+        <f t="shared" ref="Q9" si="21">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
       <c r="U9" s="4">
         <f t="shared" si="6"/>
         <v>1.089E-2</v>
@@ -1880,18 +2274,18 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="10">
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="11">
         <f t="shared" ref="R10" si="22">IF(A11,I11-F10,"")</f>
         <v>3.1388671875000004E-6</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="13">
         <f>IF(A11,IF(R10&gt;1,R10,IF(R10&gt;0.001,R10*1000,IF(R10&gt;0.000001,1000000*R10,IF(R10&gt;R10&gt;0.000000001,R10*1000000000,"")))),"")</f>
         <v>3.1388671875000003</v>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="14" t="str">
         <f>IF(A11,IF(J10,IF(R10&gt;1,"A",IF(R10&gt;0.001,"mA",IF(R10&gt;0.000001,"uA",IF(R10&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
@@ -1958,21 +2352,21 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O11" s="10">
-        <f t="shared" ref="O11:O18" si="25">IF(A12,I12-F11,"")</f>
+      <c r="O11" s="11">
+        <f t="shared" ref="O11" si="25">IF(A12,I12-F11,"")</f>
         <v>3.1388671875E-7</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="13">
         <f t="shared" ref="P11" si="26">IF(A12,IF(O11&gt;1,O11,IF(O11&gt;0.001,O11*1000,IF(O11&gt;0.000001,1000000*O11,IF(O11&gt;O11&gt;0.000000001,O11*1000000000,"")))),"")</f>
         <v>313.88671875</v>
       </c>
-      <c r="Q11" s="12" t="str">
-        <f t="shared" ref="Q11:Q18" si="27">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
+      <c r="Q11" s="14" t="str">
+        <f t="shared" ref="Q11" si="27">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
         <v>nA</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="12"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
       <c r="U11" s="4">
         <f t="shared" si="6"/>
         <v>1.089E-4</v>
@@ -2036,18 +2430,18 @@
         <f t="shared" si="12"/>
         <v>nA</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="10" t="str">
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="11" t="str">
         <f t="shared" ref="R12" si="28">IF(A13,I13-F12,"")</f>
         <v/>
       </c>
-      <c r="S12" s="11" t="str">
+      <c r="S12" s="13" t="str">
         <f>IF(A13,IF(R12&gt;1,R12,IF(R12&gt;0.001,R12*1000,IF(R12&gt;0.000001,1000000*R12,IF(R12&gt;R12&gt;0.000000001,R12*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T12" s="12" t="str">
+      <c r="T12" s="14" t="str">
         <f>IF(A13,IF(J12,IF(R12&gt;1,"A",IF(R12&gt;0.001,"mA",IF(R12&gt;0.000001,"uA",IF(R12&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2111,21 +2505,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O13" s="10" t="str">
-        <f t="shared" ref="O13:O18" si="29">IF(A14,I14-F13,"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="11" t="str">
+      <c r="O13" s="11" t="str">
+        <f t="shared" ref="O13" si="29">IF(A14,I14-F13,"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="13" t="str">
         <f t="shared" ref="P13" si="30">IF(A14,IF(O13&gt;1,O13,IF(O13&gt;0.001,O13*1000,IF(O13&gt;0.000001,1000000*O13,IF(O13&gt;O13&gt;0.000000001,O13*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="12" t="str">
-        <f t="shared" ref="Q13:Q18" si="31">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
+      <c r="Q13" s="14" t="str">
+        <f t="shared" ref="Q13" si="31">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
       <c r="U13" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2186,18 +2580,18 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="10" t="str">
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="11" t="str">
         <f t="shared" ref="R14" si="33">IF(A15,I15-F14,"")</f>
         <v/>
       </c>
-      <c r="S14" s="11" t="str">
+      <c r="S14" s="13" t="str">
         <f>IF(A15,IF(R14&gt;1,R14,IF(R14&gt;0.001,R14*1000,IF(R14&gt;0.000001,1000000*R14,IF(R14&gt;R14&gt;0.000000001,R14*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T14" s="12" t="str">
+      <c r="T14" s="14" t="str">
         <f>IF(A15,IF(J14,IF(R14&gt;1,"A",IF(R14&gt;0.001,"mA",IF(R14&gt;0.000001,"uA",IF(R14&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2261,21 +2655,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O15" s="10" t="str">
-        <f t="shared" ref="O15:O18" si="34">IF(A16,I16-F15,"")</f>
-        <v/>
-      </c>
-      <c r="P15" s="11" t="str">
+      <c r="O15" s="11" t="str">
+        <f t="shared" ref="O15" si="34">IF(A16,I16-F15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="13" t="str">
         <f t="shared" ref="P15" si="35">IF(A16,IF(O15&gt;1,O15,IF(O15&gt;0.001,O15*1000,IF(O15&gt;0.000001,1000000*O15,IF(O15&gt;O15&gt;0.000000001,O15*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="12" t="str">
-        <f t="shared" ref="Q15:Q18" si="36">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
+      <c r="Q15" s="14" t="str">
+        <f t="shared" ref="Q15" si="36">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
       <c r="U15" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2336,18 +2730,18 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="10" t="str">
+      <c r="O16" s="11"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="11" t="str">
         <f t="shared" ref="R16" si="37">IF(A17,I17-F16,"")</f>
         <v/>
       </c>
-      <c r="S16" s="11" t="str">
+      <c r="S16" s="13" t="str">
         <f>IF(A17,IF(R16&gt;1,R16,IF(R16&gt;0.001,R16*1000,IF(R16&gt;0.000001,1000000*R16,IF(R16&gt;R16&gt;0.000000001,R16*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T16" s="12" t="str">
+      <c r="T16" s="14" t="str">
         <f>IF(A17,IF(J16,IF(R16&gt;1,"A",IF(R16&gt;0.001,"mA",IF(R16&gt;0.000001,"uA",IF(R16&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2411,21 +2805,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O17" s="10" t="str">
-        <f t="shared" ref="O17:O18" si="38">IF(A18,I18-F17,"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="11" t="str">
+      <c r="O17" s="11" t="str">
+        <f t="shared" ref="O17" si="38">IF(A18,I18-F17,"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="13" t="str">
         <f t="shared" ref="P17" si="39">IF(A18,IF(O17&gt;1,O17,IF(O17&gt;0.001,O17*1000,IF(O17&gt;0.000001,1000000*O17,IF(O17&gt;O17&gt;0.000000001,O17*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="12" t="str">
-        <f t="shared" ref="Q17:Q18" si="40">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
+      <c r="Q17" s="14" t="str">
+        <f t="shared" ref="Q17" si="40">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
       <c r="U17" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2486,9 +2880,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="9"/>
       <c r="U18" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2603,6 +2997,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O4:T4"/>
@@ -2619,40 +3047,1490 @@
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="P17:P18"/>
-    <mergeCell ref="O5:O6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="12.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="12.5" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="12.5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="12.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="6.5" customWidth="1"/>
+    <col min="21" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="25" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="209" customHeight="1"/>
+    <row r="3" spans="1:33" ht="28" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" ht="28" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5">
+        <v>0.01</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>IF(A5,3.3*20/(E5*POWER(2,16)),"")</f>
+        <v>2.0141601562500001E-5</v>
+      </c>
+      <c r="D5">
+        <f>IF(A5,3/E5,"")</f>
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F18" si="0">IF(A5,C5/A5,"")</f>
+        <v>2.01416015625E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5:G9" si="1">IF(F5&gt;1,F5,IF(F5&gt;0.001,F5*1000,IF(F5&gt;0.000001,1000000*F5,IF(F5&gt;F5&gt;0.000000001,F5*1000000000,""))))</f>
+        <v>2.01416015625</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H12" si="2">IF(A5,IF(F5&gt;1,"A",IF(F5&gt;0.001,"mA",IF(F5&gt;0.000001,"uA",IF(F5&gt;0.000000001,"nA","")))),"")</f>
+        <v>mA</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5" si="3">IF(A5,D5/A5,"")</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J9" si="4">IF(I5&gt;1,I5,IF(I5&gt;0.001,I5*1000,IF(I5&gt;0.000001,1000000*I5,IF(I5&gt;I5&gt;0.000000001,I5*1000000000,""))))</f>
+        <v>6</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(A5,IF(I5&gt;1,"A",IF(I5&gt;0.001,"mA",IF(I5&gt;0.000001,"uA",IF(I5&gt;0.000000001,"nA","")))),"")</f>
+        <v>A</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L18" si="5">IF(A5,I5-F5,"")</f>
+        <v>5.99798583984375</v>
+      </c>
+      <c r="M5" s="4">
+        <f>IF(L5&gt;1,L5,IF(L5&gt;0.001,L5*1000,IF(L5&gt;0.000001,1000000*L5,IF(L5&gt;L5&gt;0.000000001,L5*1000000000,""))))</f>
+        <v>5.99798583984375</v>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(A5,IF(L5&gt;1,"A",IF(L5&gt;0.001,"mA",IF(L5&gt;0.000001,"uA",IF(L5&gt;0.000000001,"nA","")))),"")</f>
+        <v>A</v>
+      </c>
+      <c r="O5" s="11">
+        <f>IF(A6,I6-F5,"")</f>
+        <v>5.7985839843749998E-2</v>
+      </c>
+      <c r="P5" s="13">
+        <f>IF(A6,IF(O5&gt;1,O5,IF(O5&gt;0.001,O5*1000,IF(O5&gt;0.000001,1000000*O5,IF(O5&gt;O5&gt;0.000000001,O5*1000000000,"")))),"")</f>
+        <v>57.98583984375</v>
+      </c>
+      <c r="Q5" s="14" t="str">
+        <f>IF(A6,IF(G5,IF(O5&gt;1,"A",IF(O5&gt;0.001,"mA",IF(O5&gt;0.000001,"uA",IF(O5&gt;0.000000001,"nA","")))),""),"")</f>
+        <v>mA</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="U5">
+        <f>IF(A5,1000000*E5*D5/POWER(2,16),"")</f>
+        <v>45.7763671875</v>
+      </c>
+      <c r="V5">
+        <f>IF(A5,F5*1000000,"")</f>
+        <v>2014.16015625</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" ref="W5:W18" si="6">IF(A5,1000*I5*I5*A5,"")</f>
+        <v>360</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" ref="X5:X18" si="7">IF(A5,1000*I5*A5,"")</f>
+        <v>60</v>
+      </c>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:C18" si="8">IF(A6,3.3*20/(E6*POWER(2,16)),"")</f>
+        <v>2.0141601562500001E-5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D18" si="9">IF(A6,3/E6,"")</f>
+        <v>0.06</v>
+      </c>
+      <c r="E6">
+        <f>IF(A6,E5,"")</f>
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.0141601562500001E-5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>20.1416015625</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>uA</v>
+      </c>
+      <c r="I6">
+        <f>IF(A6,D6/A6,"")</f>
+        <v>0.06</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K18" si="10">IF(A6,IF(I6&gt;1,"A",IF(I6&gt;0.001,"mA",IF(I6&gt;0.000001,"uA",IF(I6&gt;0.000000001,"nA","")))),"")</f>
+        <v>mA</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>5.9979858398437495E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6:M18" si="11">IF(L6&gt;1,L6,IF(L6&gt;0.001,L6*1000,IF(L6&gt;0.000001,1000000*L6,IF(L6&gt;L6&gt;0.000000001,L6*1000000000,""))))</f>
+        <v>59.979858398437493</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N18" si="12">IF(A6,IF(L6&gt;1,"A",IF(L6&gt;0.001,"mA",IF(L6&gt;0.000001,"uA",IF(L6&gt;0.000000001,"nA","")))),"")</f>
+        <v>mA</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="11">
+        <f>IF(A7,I7-F6,"")</f>
+        <v>5.7985839843749994E-4</v>
+      </c>
+      <c r="S6" s="13">
+        <f>IF(A7,IF(R6&gt;1,R6,IF(R6&gt;0.001,R6*1000,IF(R6&gt;0.000001,1000000*R6,IF(R6&gt;R6&gt;0.000000001,R6*1000000000,"")))),"")</f>
+        <v>579.85839843749989</v>
+      </c>
+      <c r="T6" s="14" t="str">
+        <f>IF(A7,IF(J6,IF(R6&gt;1,"A",IF(R6&gt;0.001,"mA",IF(R6&gt;0.000001,"uA",IF(R6&gt;0.000000001,"nA","")))),""),"")</f>
+        <v>uA</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:U18" si="13">IF(A6,1000000*E6*D6/POWER(2,16),"")</f>
+        <v>45.7763671875</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V18" si="14">IF(A6,F6*1000000,"")</f>
+        <v>20.1416015625</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>2.0141601562500001E-5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E18" si="15">IF(A7,E6,"")</f>
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.01416015625E-7</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>201.416015625</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>nA</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I18" si="16">IF(A7,D7/A7,"")</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="10"/>
+        <v>uA</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>5.9979858398437498E-4</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="11"/>
+        <v>599.798583984375</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="12"/>
+        <v>uA</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" ref="O7" si="17">IF(A8,I8-F7,"")</f>
+        <v>5.7985839843750003E-6</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" ref="P7" si="18">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
+        <v>5.798583984375</v>
+      </c>
+      <c r="Q7" s="14" t="str">
+        <f t="shared" ref="Q7" si="19">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
+        <v>uA</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7">
+        <f t="shared" si="13"/>
+        <v>45.7763671875</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="14"/>
+        <v>0.201416015625</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>2.0141601562500001E-5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.0141601562500002E-9</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>2.01416015625</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>nA</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="16"/>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="10"/>
+        <v>uA</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>5.9979858398437498E-6</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="11"/>
+        <v>5.99798583984375</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="12"/>
+        <v>uA</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="11" t="str">
+        <f t="shared" ref="R8" si="20">IF(A9,I9-F8,"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="13" t="str">
+        <f>IF(A9,IF(R8&gt;1,R8,IF(R8&gt;0.001,R8*1000,IF(R8&gt;0.000001,1000000*R8,IF(R8&gt;R8&gt;0.000000001,R8*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T8" s="14" t="str">
+        <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f t="shared" si="13"/>
+        <v>45.7763671875</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="14"/>
+        <v>2.01416015625E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="6"/>
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9" s="1"/>
+      <c r="C9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O9" s="11" t="str">
+        <f t="shared" ref="O9" si="21">IF(A10,I10-F9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="13" t="str">
+        <f t="shared" ref="P9" si="22">IF(A10,IF(O9&gt;1,O9,IF(O9&gt;0.001,O9*1000,IF(O9&gt;0.000001,1000000*O9,IF(O9&gt;O9&gt;0.000000001,O9*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="14" t="str">
+        <f t="shared" ref="Q9" si="23">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
+      <c r="U9" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="1"/>
+      <c r="C10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>IF(F10&gt;1,F10,IF(F10&gt;0.001,F10*1000,IF(F10&gt;0.000001,1000000*F10,IF(F10&gt;F10&gt;0.000000001,F10*1000000000,""))))</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>IF(I10&gt;1,I10,IF(I10&gt;0.001,I10*1000,IF(I10&gt;0.000001,1000000*I10,IF(I10&gt;I10&gt;0.000000001,I10*1000000000,""))))</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="11" t="str">
+        <f t="shared" ref="R10" si="24">IF(A11,I11-F10,"")</f>
+        <v/>
+      </c>
+      <c r="S10" s="13" t="str">
+        <f>IF(A11,IF(R10&gt;1,R10,IF(R10&gt;0.001,R10*1000,IF(R10&gt;0.000001,1000000*R10,IF(R10&gt;R10&gt;0.000000001,R10*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T10" s="14" t="str">
+        <f>IF(A11,IF(J10,IF(R10&gt;1,"A",IF(R10&gt;0.001,"mA",IF(R10&gt;0.000001,"uA",IF(R10&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X10" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="1"/>
+      <c r="C11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(A11,C11/A11,"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" ref="G11:G18" si="25">IF(F11&gt;1,F11,IF(F11&gt;0.001,F11*1000,IF(F11&gt;0.000001,1000000*F11,IF(F11&gt;F11&gt;0.000000001,F11*1000000000,""))))</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" ref="J11:J18" si="26">IF(I11&gt;1,I11,IF(I11&gt;0.001,I11*1000,IF(I11&gt;0.000001,1000000*I11,IF(I11&gt;I11&gt;0.000000001,I11*1000000000,""))))</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O11" s="11" t="str">
+        <f t="shared" ref="O11" si="27">IF(A12,I12-F11,"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="13" t="str">
+        <f t="shared" ref="P11" si="28">IF(A12,IF(O11&gt;1,O11,IF(O11&gt;0.001,O11*1000,IF(O11&gt;0.000001,1000000*O11,IF(O11&gt;O11&gt;0.000000001,O11*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="14" t="str">
+        <f t="shared" ref="Q11" si="29">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
+      <c r="U11" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W11" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" s="1"/>
+      <c r="C12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="11" t="str">
+        <f t="shared" ref="R12" si="30">IF(A13,I13-F12,"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="13" t="str">
+        <f>IF(A13,IF(R12&gt;1,R12,IF(R12&gt;0.001,R12*1000,IF(R12&gt;0.000001,1000000*R12,IF(R12&gt;R12&gt;0.000000001,R12*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T12" s="14" t="str">
+        <f>IF(A13,IF(J12,IF(R12&gt;1,"A",IF(R12&gt;0.001,"mA",IF(R12&gt;0.000001,"uA",IF(R12&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W12" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="1"/>
+      <c r="C13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(A13,IF(F13&gt;1,"A",IF(F13&gt;0.001,"mA",IF(F13&gt;0.000001,"uA",IF(F13&gt;0.000000001,"nA","")))),"")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O13" s="11" t="str">
+        <f t="shared" ref="O13" si="31">IF(A14,I14-F13,"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="13" t="str">
+        <f t="shared" ref="P13" si="32">IF(A14,IF(O13&gt;1,O13,IF(O13&gt;0.001,O13*1000,IF(O13&gt;0.000001,1000000*O13,IF(O13&gt;O13&gt;0.000000001,O13*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="14" t="str">
+        <f t="shared" ref="Q13" si="33">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14"/>
+      <c r="U13" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W13" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="1"/>
+      <c r="C14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ref="H14:H18" si="34">IF(A14,IF(F14&gt;1,"A",IF(F14&gt;0.001,"mA",IF(F14&gt;0.000001,"uA",IF(F14&gt;0.000000001,"nA","")))),"")</f>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="11" t="str">
+        <f t="shared" ref="R14" si="35">IF(A15,I15-F14,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="13" t="str">
+        <f>IF(A15,IF(R14&gt;1,R14,IF(R14&gt;0.001,R14*1000,IF(R14&gt;0.000001,1000000*R14,IF(R14&gt;R14&gt;0.000000001,R14*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="14" t="str">
+        <f>IF(A15,IF(J14,IF(R14&gt;1,"A",IF(R14&gt;0.001,"mA",IF(R14&gt;0.000001,"uA",IF(R14&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W14" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="1"/>
+      <c r="C15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O15" s="11" t="str">
+        <f t="shared" ref="O15" si="36">IF(A16,I16-F15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="13" t="str">
+        <f t="shared" ref="P15" si="37">IF(A16,IF(O15&gt;1,O15,IF(O15&gt;0.001,O15*1000,IF(O15&gt;0.000001,1000000*O15,IF(O15&gt;O15&gt;0.000000001,O15*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="14" t="str">
+        <f t="shared" ref="Q15" si="38">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="14"/>
+      <c r="U15" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W15" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="B16" s="1"/>
+      <c r="C16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="11" t="str">
+        <f t="shared" ref="R16" si="39">IF(A17,I17-F16,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="13" t="str">
+        <f>IF(A17,IF(R16&gt;1,R16,IF(R16&gt;0.001,R16*1000,IF(R16&gt;0.000001,1000000*R16,IF(R16&gt;R16&gt;0.000000001,R16*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="14" t="str">
+        <f>IF(A17,IF(J16,IF(R16&gt;1,"A",IF(R16&gt;0.001,"mA",IF(R16&gt;0.000001,"uA",IF(R16&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W16" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="B17" s="1"/>
+      <c r="C17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O17" s="11" t="str">
+        <f t="shared" ref="O17" si="40">IF(A18,I18-F17,"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="13" t="str">
+        <f t="shared" ref="P17" si="41">IF(A18,IF(O17&gt;1,O17,IF(O17&gt;0.001,O17*1000,IF(O17&gt;0.000001,1000000*O17,IF(O17&gt;O17&gt;0.000000001,O17*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="14" t="str">
+        <f t="shared" ref="Q17" si="42">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
+      <c r="U17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W17" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="B18" s="1"/>
+      <c r="C18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M18" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="10"/>
+      <c r="U18" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="W18" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:36">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="34" spans="25:25">
+      <c r="Y34" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="F3:T3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Documentation/Resistive Shunt Parameters.xlsx
+++ b/Documentation/Resistive Shunt Parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="320" windowWidth="36860" windowHeight="19980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="300" windowWidth="36860" windowHeight="19980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="12-bit" sheetId="1" r:id="rId1"/>
@@ -960,16 +960,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,10 +984,10 @@
                   <c:v>2.01416015625E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.01416015625E-7</c:v>
+                  <c:v>1.007080078125E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.01416015625E-9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -1024,16 +1021,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,10 +1045,10 @@
                   <c:v>0.0599798583984375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000599798583984375</c:v>
+                  <c:v>0.000299899291992187</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.99798583984375E-6</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -1718,7 +1712,7 @@
   <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3064,7 +3058,7 @@
   <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3195,19 +3189,19 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
         <f>IF(A5,3.3*20/(E5*POWER(2,16)),"")</f>
-        <v>2.0141601562500001E-5</v>
+        <v>1.007080078125E-5</v>
       </c>
       <c r="D5">
         <f>IF(A5,3/E5,"")</f>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F18" si="0">IF(A5,C5/A5,"")</f>
@@ -3268,30 +3262,30 @@
       </c>
       <c r="W5" s="4">
         <f t="shared" ref="W5:W18" si="6">IF(A5,1000*I5*I5*A5,"")</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" ref="X5:X18" si="7">IF(A5,1000*I5*A5,"")</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
         <f t="shared" ref="C6:C18" si="8">IF(A6,3.3*20/(E6*POWER(2,16)),"")</f>
-        <v>2.0141601562500001E-5</v>
+        <v>1.007080078125E-5</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D18" si="9">IF(A6,3/E6,"")</f>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E6">
         <f>IF(A6,E5,"")</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3334,11 +3328,11 @@
       <c r="Q6" s="14"/>
       <c r="R6" s="11">
         <f>IF(A7,I7-F6,"")</f>
-        <v>5.7985839843749994E-4</v>
+        <v>2.7985839843749997E-4</v>
       </c>
       <c r="S6" s="13">
         <f>IF(A7,IF(R6&gt;1,R6,IF(R6&gt;0.001,R6*1000,IF(R6&gt;0.000001,1000000*R6,IF(R6&gt;R6&gt;0.000000001,R6*1000000000,"")))),"")</f>
-        <v>579.85839843749989</v>
+        <v>279.85839843749994</v>
       </c>
       <c r="T6" s="14" t="str">
         <f>IF(A7,IF(J6,IF(R6&gt;1,"A",IF(R6&gt;0.001,"mA",IF(R6&gt;0.000001,"uA",IF(R6&gt;0.000000001,"nA","")))),""),"")</f>
@@ -3354,11 +3348,11 @@
       </c>
       <c r="W6" s="4">
         <f t="shared" si="6"/>
-        <v>3.5999999999999996</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="5"/>
     </row>
@@ -3369,23 +3363,23 @@
       <c r="B7" s="1"/>
       <c r="C7">
         <f t="shared" si="8"/>
-        <v>2.0141601562500001E-5</v>
+        <v>1.007080078125E-5</v>
       </c>
       <c r="D7">
         <f t="shared" si="9"/>
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E18" si="15">IF(A7,E6,"")</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2.01416015625E-7</v>
+        <v>1.007080078125E-7</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>201.416015625</v>
+        <v>100.7080078125</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -3393,11 +3387,11 @@
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I18" si="16">IF(A7,D7/A7,"")</f>
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="10"/>
@@ -3405,27 +3399,27 @@
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.9979858398437498E-4</v>
+        <v>2.9989929199218749E-4</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="11"/>
-        <v>599.798583984375</v>
+        <v>299.8992919921875</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="11" t="str">
         <f t="shared" ref="O7" si="17">IF(A8,I8-F7,"")</f>
-        <v>5.7985839843750003E-6</v>
-      </c>
-      <c r="P7" s="13">
+        <v/>
+      </c>
+      <c r="P7" s="13" t="str">
         <f t="shared" ref="P7" si="18">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
-        <v>5.798583984375</v>
+        <v/>
       </c>
       <c r="Q7" s="14" t="str">
         <f t="shared" ref="Q7" si="19">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
-        <v>uA</v>
+        <v/>
       </c>
       <c r="R7" s="11"/>
       <c r="S7" s="13"/>
@@ -3436,70 +3430,67 @@
       </c>
       <c r="V7">
         <f t="shared" si="14"/>
-        <v>0.201416015625</v>
+        <v>0.1007080078125</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="6"/>
-        <v>3.5999999999999997E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8">
-        <v>10000</v>
-      </c>
       <c r="B8" s="1"/>
-      <c r="C8">
+      <c r="C8" t="str">
         <f t="shared" si="8"/>
-        <v>2.0141601562500001E-5</v>
-      </c>
-      <c r="D8">
+        <v/>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="9"/>
-        <v>0.06</v>
-      </c>
-      <c r="E8">
+        <v/>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="F8">
+        <v/>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>2.0141601562500002E-9</v>
-      </c>
-      <c r="G8" s="4">
+        <v/>
+      </c>
+      <c r="G8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2.01416015625</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
-        <v>nA</v>
-      </c>
-      <c r="I8">
+        <v/>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="16"/>
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="J8" s="4">
+        <v/>
+      </c>
+      <c r="J8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="10"/>
-        <v>uA</v>
-      </c>
-      <c r="L8">
+        <v/>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>5.9979858398437498E-6</v>
-      </c>
-      <c r="M8" s="4">
+        <v/>
+      </c>
+      <c r="M8" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>5.99798583984375</v>
+        <v/>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="12"/>
-        <v>uA</v>
+        <v/>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="13"/>
@@ -3516,21 +3507,21 @@
         <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U8" t="str">
         <f t="shared" si="13"/>
-        <v>45.7763671875</v>
-      </c>
-      <c r="V8">
+        <v/>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="14"/>
-        <v>2.01416015625E-3</v>
-      </c>
-      <c r="W8" s="4">
+        <v/>
+      </c>
+      <c r="W8" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="X8" s="3">
+        <v/>
+      </c>
+      <c r="X8" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v/>
       </c>
       <c r="Y8" s="5"/>
     </row>

--- a/Documentation/Resistive Shunt Parameters.xlsx
+++ b/Documentation/Resistive Shunt Parameters.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RossHarvey\Documents\School\EE4951_REPO\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="300" windowWidth="36860" windowHeight="19980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="300" windowWidth="36855" windowHeight="19980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="12-bit" sheetId="1" r:id="rId1"/>
     <sheet name="16-bit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -125,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,17 +428,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="210">
@@ -650,6 +655,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -700,28 +713,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,16 +746,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.0322265625</c:v>
+                  <c:v>3.22265625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.001611328125</c:v>
+                  <c:v>1.6113281249999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0001611328125</c:v>
+                  <c:v>1.6113281250000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.611328125E-5</c:v>
+                  <c:v>1.6113281250000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.611328125E-6</c:v>
@@ -751,28 +764,28 @@
                   <c:v>1.611328125E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.611328125E-8</c:v>
+                  <c:v>1.6113281250000001E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.611328125E-9</c:v>
+                  <c:v>1.6113281250000001E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,46 +813,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6.567773437500001</c:v>
+                  <c:v>6.5677734375000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.328388671875</c:v>
+                  <c:v>0.32838867187500004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0328388671875</c:v>
+                  <c:v>3.2838867187500002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00328388671875</c:v>
+                  <c:v>3.2838867187499998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000328388671875</c:v>
+                  <c:v>3.2838867187500001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.28388671875E-5</c:v>
+                  <c:v>3.2838867187500004E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.28388671875E-6</c:v>
+                  <c:v>3.2838867187500001E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.28388671875E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,11 +868,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2122199560"/>
-        <c:axId val="2122202536"/>
+        <c:axId val="162056720"/>
+        <c:axId val="162065680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2122199560"/>
+        <c:axId val="162056720"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -869,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122202536"/>
+        <c:crossAx val="162065680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,11 +890,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122202536"/>
+        <c:axId val="162065680"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -890,7 +903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122199560"/>
+        <c:crossAx val="162056720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,7 +920,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -960,13 +973,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.005</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,22 +994,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00201416015625</c:v>
+                  <c:v>4.0283203125E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.01416015625E-5</c:v>
+                  <c:v>4.0283203125000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.007080078125E-7</c:v>
+                  <c:v>4.0283203125E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0283203125E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,13 +1037,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.005</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,22 +1058,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.99798583984375</c:v>
+                  <c:v>9.9959716796875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0599798583984375</c:v>
+                  <c:v>9.9959716796875001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000299899291992187</c:v>
+                  <c:v>9.9959716796875009E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>9.9959716796874998E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,11 +1089,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2128318392"/>
-        <c:axId val="-2128315416"/>
+        <c:axId val="162064000"/>
+        <c:axId val="162058400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128318392"/>
+        <c:axId val="162064000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1084,7 +1103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128315416"/>
+        <c:crossAx val="162058400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,11 +1111,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128315416"/>
+        <c:axId val="162058400"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1105,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128318392"/>
+        <c:crossAx val="162064000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1122,7 +1141,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1715,7 +1734,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="6" width="12.5" hidden="1" customWidth="1"/>
@@ -1733,43 +1752,43 @@
     <col min="21" max="23" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="209" customHeight="1"/>
-    <row r="3" spans="1:31" ht="28" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:31" ht="209.1" customHeight="1"/>
+    <row r="3" spans="1:31" ht="27.95" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="X3" s="2"/>
@@ -1781,9 +1800,9 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="28" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:31" ht="27.95" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1793,32 +1812,32 @@
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
@@ -1880,15 +1899,15 @@
         <f>IF(A5,IF(L5&gt;1,"A",IF(L5&gt;0.001,"mA",IF(L5&gt;0.000001,"uA",IF(L5&gt;0.000000001,"nA","")))),"")</f>
         <v>A</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <f>IF(A6,I6-F5,"")</f>
         <v>0.29777343750000002</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="14">
         <f>IF(A6,IF(O5&gt;1,O5,IF(O5&gt;0.001,O5*1000,IF(O5&gt;0.000001,1000000*O5,IF(O5&gt;O5&gt;0.000000001,O5*1000000000,"")))),"")</f>
         <v>297.7734375</v>
       </c>
-      <c r="Q5" s="14" t="str">
+      <c r="Q5" s="13" t="str">
         <f>IF(A6,IF(G5,IF(O5&gt;1,"A",IF(O5&gt;0.001,"mA",IF(O5&gt;0.000001,"uA",IF(O5&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
@@ -1956,18 +1975,18 @@
         <f t="shared" ref="N6:N18" si="12">IF(A6,IF(L6&gt;1,"A",IF(L6&gt;0.001,"mA",IF(L6&gt;0.000001,"uA",IF(L6&gt;0.000000001,"nA","")))),"")</f>
         <v>mA</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="11">
+      <c r="O6" s="12"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12">
         <f>IF(A7,I7-F6,"")</f>
         <v>3.1388671875000003E-2</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="14">
         <f>IF(A7,IF(R6&gt;1,R6,IF(R6&gt;0.001,R6*1000,IF(R6&gt;0.000001,1000000*R6,IF(R6&gt;R6&gt;0.000000001,R6*1000000000,"")))),"")</f>
         <v>31.388671875000004</v>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="13" t="str">
         <f>IF(A7,IF(J6,IF(R6&gt;1,"A",IF(R6&gt;0.001,"mA",IF(R6&gt;0.000001,"uA",IF(R6&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
@@ -2034,21 +2053,21 @@
         <f t="shared" si="12"/>
         <v>mA</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <f t="shared" ref="O7" si="15">IF(A8,I8-F7,"")</f>
         <v>3.1388671874999999E-3</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="14">
         <f t="shared" ref="P7" si="16">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
         <v>3.1388671874999998</v>
       </c>
-      <c r="Q7" s="14" t="str">
+      <c r="Q7" s="13" t="str">
         <f t="shared" ref="Q7" si="17">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13"/>
       <c r="U7" s="4">
         <f t="shared" si="6"/>
         <v>1.089</v>
@@ -2112,18 +2131,18 @@
         <f t="shared" si="12"/>
         <v>mA</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="11">
+      <c r="O8" s="12"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="12">
         <f t="shared" ref="R8" si="18">IF(A9,I9-F8,"")</f>
         <v>3.1388671874999998E-4</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="14">
         <f>IF(A9,IF(R8&gt;1,R8,IF(R8&gt;0.001,R8*1000,IF(R8&gt;0.000001,1000000*R8,IF(R8&gt;R8&gt;0.000000001,R8*1000000000,"")))),"")</f>
         <v>313.88671875</v>
       </c>
-      <c r="T8" s="14" t="str">
+      <c r="T8" s="13" t="str">
         <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
@@ -2190,21 +2209,21 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="12">
         <f t="shared" ref="O9" si="19">IF(A10,I10-F9,"")</f>
         <v>3.1388671875000004E-5</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="14">
         <f t="shared" ref="P9" si="20">IF(A10,IF(O9&gt;1,O9,IF(O9&gt;0.001,O9*1000,IF(O9&gt;0.000001,1000000*O9,IF(O9&gt;O9&gt;0.000000001,O9*1000000000,"")))),"")</f>
         <v>31.388671875000004</v>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="13" t="str">
         <f t="shared" ref="Q9" si="21">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
       <c r="U9" s="4">
         <f t="shared" si="6"/>
         <v>1.089E-2</v>
@@ -2268,18 +2287,18 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="11">
+      <c r="O10" s="12"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="12">
         <f t="shared" ref="R10" si="22">IF(A11,I11-F10,"")</f>
         <v>3.1388671875000004E-6</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="14">
         <f>IF(A11,IF(R10&gt;1,R10,IF(R10&gt;0.001,R10*1000,IF(R10&gt;0.000001,1000000*R10,IF(R10&gt;R10&gt;0.000000001,R10*1000000000,"")))),"")</f>
         <v>3.1388671875000003</v>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T10" s="13" t="str">
         <f>IF(A11,IF(J10,IF(R10&gt;1,"A",IF(R10&gt;0.001,"mA",IF(R10&gt;0.000001,"uA",IF(R10&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
@@ -2346,21 +2365,21 @@
         <f t="shared" si="12"/>
         <v>uA</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="12">
         <f t="shared" ref="O11" si="25">IF(A12,I12-F11,"")</f>
         <v>3.1388671875E-7</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="14">
         <f t="shared" ref="P11" si="26">IF(A12,IF(O11&gt;1,O11,IF(O11&gt;0.001,O11*1000,IF(O11&gt;0.000001,1000000*O11,IF(O11&gt;O11&gt;0.000000001,O11*1000000000,"")))),"")</f>
         <v>313.88671875</v>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="13" t="str">
         <f t="shared" ref="Q11" si="27">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
         <v>nA</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="4">
         <f t="shared" si="6"/>
         <v>1.089E-4</v>
@@ -2424,18 +2443,18 @@
         <f t="shared" si="12"/>
         <v>nA</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="11" t="str">
+      <c r="O12" s="12"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12" t="str">
         <f t="shared" ref="R12" si="28">IF(A13,I13-F12,"")</f>
         <v/>
       </c>
-      <c r="S12" s="13" t="str">
+      <c r="S12" s="14" t="str">
         <f>IF(A13,IF(R12&gt;1,R12,IF(R12&gt;0.001,R12*1000,IF(R12&gt;0.000001,1000000*R12,IF(R12&gt;R12&gt;0.000000001,R12*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T12" s="14" t="str">
+      <c r="T12" s="13" t="str">
         <f>IF(A13,IF(J12,IF(R12&gt;1,"A",IF(R12&gt;0.001,"mA",IF(R12&gt;0.000001,"uA",IF(R12&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2499,21 +2518,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="12" t="str">
         <f t="shared" ref="O13" si="29">IF(A14,I14-F13,"")</f>
         <v/>
       </c>
-      <c r="P13" s="13" t="str">
+      <c r="P13" s="14" t="str">
         <f t="shared" ref="P13" si="30">IF(A14,IF(O13&gt;1,O13,IF(O13&gt;0.001,O13*1000,IF(O13&gt;0.000001,1000000*O13,IF(O13&gt;O13&gt;0.000000001,O13*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="14" t="str">
+      <c r="Q13" s="13" t="str">
         <f t="shared" ref="Q13" si="31">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
       <c r="U13" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2574,18 +2593,18 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="11" t="str">
+      <c r="O14" s="12"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12" t="str">
         <f t="shared" ref="R14" si="33">IF(A15,I15-F14,"")</f>
         <v/>
       </c>
-      <c r="S14" s="13" t="str">
+      <c r="S14" s="14" t="str">
         <f>IF(A15,IF(R14&gt;1,R14,IF(R14&gt;0.001,R14*1000,IF(R14&gt;0.000001,1000000*R14,IF(R14&gt;R14&gt;0.000000001,R14*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="13" t="str">
         <f>IF(A15,IF(J14,IF(R14&gt;1,"A",IF(R14&gt;0.001,"mA",IF(R14&gt;0.000001,"uA",IF(R14&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2649,21 +2668,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="O15" s="12" t="str">
         <f t="shared" ref="O15" si="34">IF(A16,I16-F15,"")</f>
         <v/>
       </c>
-      <c r="P15" s="13" t="str">
+      <c r="P15" s="14" t="str">
         <f t="shared" ref="P15" si="35">IF(A16,IF(O15&gt;1,O15,IF(O15&gt;0.001,O15*1000,IF(O15&gt;0.000001,1000000*O15,IF(O15&gt;O15&gt;0.000000001,O15*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="14" t="str">
+      <c r="Q15" s="13" t="str">
         <f t="shared" ref="Q15" si="36">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
       <c r="U15" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2724,18 +2743,18 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="11" t="str">
+      <c r="O16" s="12"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12" t="str">
         <f t="shared" ref="R16" si="37">IF(A17,I17-F16,"")</f>
         <v/>
       </c>
-      <c r="S16" s="13" t="str">
+      <c r="S16" s="14" t="str">
         <f>IF(A17,IF(R16&gt;1,R16,IF(R16&gt;0.001,R16*1000,IF(R16&gt;0.000001,1000000*R16,IF(R16&gt;R16&gt;0.000000001,R16*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="T16" s="14" t="str">
+      <c r="T16" s="13" t="str">
         <f>IF(A17,IF(J16,IF(R16&gt;1,"A",IF(R16&gt;0.001,"mA",IF(R16&gt;0.000001,"uA",IF(R16&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
@@ -2799,21 +2818,21 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="12" t="str">
         <f t="shared" ref="O17" si="38">IF(A18,I18-F17,"")</f>
         <v/>
       </c>
-      <c r="P17" s="13" t="str">
+      <c r="P17" s="14" t="str">
         <f t="shared" ref="P17" si="39">IF(A18,IF(O17&gt;1,O17,IF(O17&gt;0.001,O17*1000,IF(O17&gt;0.000001,1000000*O17,IF(O17&gt;O17&gt;0.000000001,O17*1000000000,"")))),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="14" t="str">
+      <c r="Q17" s="13" t="str">
         <f t="shared" ref="Q17" si="40">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
         <v/>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="13"/>
       <c r="U17" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2874,9 +2893,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="9"/>
       <c r="U18" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2991,16 +3010,30 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F3:T3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="S6:S7"/>
@@ -3017,30 +3050,16 @@
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3057,72 +3076,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="4" width="12.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="12.5" hidden="1" customWidth="1"/>
+    <col min="1" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="12.5" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="12.5" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="12.5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="6.5" customWidth="1"/>
-    <col min="18" max="18" width="12.5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="6.5" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" customWidth="1"/>
-    <col min="23" max="25" width="12.5" customWidth="1"/>
+    <col min="16" max="20" width="1.375" customWidth="1"/>
+    <col min="21" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="23" width="3.25" customWidth="1"/>
+    <col min="24" max="25" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="209" customHeight="1"/>
-    <row r="3" spans="1:33" ht="28" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:33" ht="209.1" customHeight="1"/>
+    <row r="3" spans="1:33" ht="27.95" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="Z3" s="2"/>
@@ -3134,9 +3147,9 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" ht="28" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+    <row r="4" spans="1:33" ht="27.95" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
@@ -3146,38 +3159,38 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -3189,27 +3202,26 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
         <f>IF(A5,3.3*20/(E5*POWER(2,16)),"")</f>
-        <v>1.007080078125E-5</v>
+        <v>4.0283203125000002E-5</v>
       </c>
       <c r="D5">
-        <f>IF(A5,3/E5,"")</f>
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F18" si="0">IF(A5,C5/A5,"")</f>
-        <v>2.01416015625E-3</v>
+        <v>4.0283203125E-3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G9" si="1">IF(F5&gt;1,F5,IF(F5&gt;0.001,F5*1000,IF(F5&gt;0.000001,1000000*F5,IF(F5&gt;F5&gt;0.000000001,F5*1000000000,""))))</f>
-        <v>2.01416015625</v>
+        <v>4.0283203125</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H12" si="2">IF(A5,IF(F5&gt;1,"A",IF(F5&gt;0.001,"mA",IF(F5&gt;0.000001,"uA",IF(F5&gt;0.000000001,"nA","")))),"")</f>
@@ -3217,11 +3229,11 @@
       </c>
       <c r="I5">
         <f t="shared" ref="I5" si="3">IF(A5,D5/A5,"")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J9" si="4">IF(I5&gt;1,I5,IF(I5&gt;0.001,I5*1000,IF(I5&gt;0.000001,1000000*I5,IF(I5&gt;I5&gt;0.000000001,I5*1000000000,""))))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K5" t="str">
         <f>IF(A5,IF(I5&gt;1,"A",IF(I5&gt;0.001,"mA",IF(I5&gt;0.000001,"uA",IF(I5&gt;0.000000001,"nA","")))),"")</f>
@@ -3229,71 +3241,71 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L18" si="5">IF(A5,I5-F5,"")</f>
-        <v>5.99798583984375</v>
+        <v>9.9959716796875</v>
       </c>
       <c r="M5" s="4">
         <f>IF(L5&gt;1,L5,IF(L5&gt;0.001,L5*1000,IF(L5&gt;0.000001,1000000*L5,IF(L5&gt;L5&gt;0.000000001,L5*1000000000,""))))</f>
-        <v>5.99798583984375</v>
+        <v>9.9959716796875</v>
       </c>
       <c r="N5" t="str">
         <f>IF(A5,IF(L5&gt;1,"A",IF(L5&gt;0.001,"mA",IF(L5&gt;0.000001,"uA",IF(L5&gt;0.000000001,"nA","")))),"")</f>
         <v>A</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <f>IF(A6,I6-F5,"")</f>
-        <v>5.7985839843749998E-2</v>
-      </c>
-      <c r="P5" s="13">
+        <v>9.5971679687500006E-2</v>
+      </c>
+      <c r="P5" s="14">
         <f>IF(A6,IF(O5&gt;1,O5,IF(O5&gt;0.001,O5*1000,IF(O5&gt;0.000001,1000000*O5,IF(O5&gt;O5&gt;0.000000001,O5*1000000000,"")))),"")</f>
-        <v>57.98583984375</v>
-      </c>
-      <c r="Q5" s="14" t="str">
+        <v>95.9716796875</v>
+      </c>
+      <c r="Q5" s="13" t="str">
         <f>IF(A6,IF(G5,IF(O5&gt;1,"A",IF(O5&gt;0.001,"mA",IF(O5&gt;0.000001,"uA",IF(O5&gt;0.000000001,"nA","")))),""),"")</f>
         <v>mA</v>
       </c>
       <c r="R5" s="10"/>
       <c r="U5">
         <f>IF(A5,1000000*E5*D5/POWER(2,16),"")</f>
-        <v>45.7763671875</v>
+        <v>38.14697265625</v>
       </c>
       <c r="V5">
         <f>IF(A5,F5*1000000,"")</f>
-        <v>2014.16015625</v>
+        <v>4028.3203125</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" ref="W5:W18" si="6">IF(A5,1000*I5*I5*A5,"")</f>
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" ref="X5:X18" si="7">IF(A5,1000*I5*A5,"")</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
         <f t="shared" ref="C6:C18" si="8">IF(A6,3.3*20/(E6*POWER(2,16)),"")</f>
-        <v>1.007080078125E-5</v>
+        <v>4.0283203125000002E-5</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D18" si="9">IF(A6,3/E6,"")</f>
-        <v>0.03</v>
+        <f>D5</f>
+        <v>0.1</v>
       </c>
       <c r="E6">
         <f>IF(A6,E5,"")</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.0141601562500001E-5</v>
+        <v>4.0283203125000002E-5</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>20.1416015625</v>
+        <v>40.283203125</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
@@ -3301,58 +3313,58 @@
       </c>
       <c r="I6">
         <f>IF(A6,D6/A6,"")</f>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ref="K6:K18" si="10">IF(A6,IF(I6&gt;1,"A",IF(I6&gt;0.001,"mA",IF(I6&gt;0.000001,"uA",IF(I6&gt;0.000000001,"nA","")))),"")</f>
+        <f t="shared" ref="K6:K18" si="9">IF(A6,IF(I6&gt;1,"A",IF(I6&gt;0.001,"mA",IF(I6&gt;0.000001,"uA",IF(I6&gt;0.000000001,"nA","")))),"")</f>
         <v>mA</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>5.9979858398437495E-2</v>
+        <v>9.9959716796875001E-2</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" ref="M6:M18" si="11">IF(L6&gt;1,L6,IF(L6&gt;0.001,L6*1000,IF(L6&gt;0.000001,1000000*L6,IF(L6&gt;L6&gt;0.000000001,L6*1000000000,""))))</f>
-        <v>59.979858398437493</v>
+        <f t="shared" ref="M6:M18" si="10">IF(L6&gt;1,L6,IF(L6&gt;0.001,L6*1000,IF(L6&gt;0.000001,1000000*L6,IF(L6&gt;L6&gt;0.000000001,L6*1000000000,""))))</f>
+        <v>99.959716796875</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6:N18" si="12">IF(A6,IF(L6&gt;1,"A",IF(L6&gt;0.001,"mA",IF(L6&gt;0.000001,"uA",IF(L6&gt;0.000000001,"nA","")))),"")</f>
+        <f t="shared" ref="N6:N18" si="11">IF(A6,IF(L6&gt;1,"A",IF(L6&gt;0.001,"mA",IF(L6&gt;0.000001,"uA",IF(L6&gt;0.000000001,"nA","")))),"")</f>
         <v>mA</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="11">
+      <c r="O6" s="12"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12">
         <f>IF(A7,I7-F6,"")</f>
-        <v>2.7985839843749997E-4</v>
-      </c>
-      <c r="S6" s="13">
+        <v>9.5971679687500001E-4</v>
+      </c>
+      <c r="S6" s="14">
         <f>IF(A7,IF(R6&gt;1,R6,IF(R6&gt;0.001,R6*1000,IF(R6&gt;0.000001,1000000*R6,IF(R6&gt;R6&gt;0.000000001,R6*1000000000,"")))),"")</f>
-        <v>279.85839843749994</v>
-      </c>
-      <c r="T6" s="14" t="str">
+        <v>959.716796875</v>
+      </c>
+      <c r="T6" s="13" t="str">
         <f>IF(A7,IF(J6,IF(R6&gt;1,"A",IF(R6&gt;0.001,"mA",IF(R6&gt;0.000001,"uA",IF(R6&gt;0.000000001,"nA","")))),""),"")</f>
         <v>uA</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U18" si="13">IF(A6,1000000*E6*D6/POWER(2,16),"")</f>
-        <v>45.7763671875</v>
+        <f t="shared" ref="U6:U18" si="12">IF(A6,1000000*E6*D6/POWER(2,16),"")</f>
+        <v>38.14697265625</v>
       </c>
       <c r="V6">
-        <f t="shared" ref="V6:V18" si="14">IF(A6,F6*1000000,"")</f>
-        <v>20.1416015625</v>
+        <f t="shared" ref="V6:V18" si="13">IF(A6,F6*1000000,"")</f>
+        <v>40.283203125</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="6"/>
-        <v>1.7999999999999998</v>
+        <v>10</v>
       </c>
       <c r="X6" s="3">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Y6" s="5"/>
     </row>
@@ -3363,23 +3375,23 @@
       <c r="B7" s="1"/>
       <c r="C7">
         <f t="shared" si="8"/>
-        <v>1.007080078125E-5</v>
+        <v>4.0283203125000002E-5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="9"/>
-        <v>0.03</v>
+        <f t="shared" ref="D7:D17" si="14">D6</f>
+        <v>0.1</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E18" si="15">IF(A7,E6,"")</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.007080078125E-7</v>
+        <v>4.0283203125E-7</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>100.7080078125</v>
+        <v>402.83203125</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
@@ -3387,141 +3399,144 @@
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I18" si="16">IF(A7,D7/A7,"")</f>
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>uA</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.9989929199218749E-4</v>
+        <v>9.9959716796875009E-4</v>
       </c>
       <c r="M7" s="4">
+        <f t="shared" si="10"/>
+        <v>999.59716796875011</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="11"/>
-        <v>299.8992919921875</v>
-      </c>
-      <c r="N7" t="str">
+        <v>uA</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" ref="O7" si="17">IF(A8,I8-F7,"")</f>
+        <v>9.9597167968750009E-5</v>
+      </c>
+      <c r="P7" s="14">
+        <f t="shared" ref="P7" si="18">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
+        <v>99.597167968750014</v>
+      </c>
+      <c r="Q7" s="13" t="str">
+        <f t="shared" ref="Q7" si="19">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
+        <v>uA</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7">
         <f t="shared" si="12"/>
-        <v>uA</v>
-      </c>
-      <c r="O7" s="11" t="str">
-        <f t="shared" ref="O7" si="17">IF(A8,I8-F7,"")</f>
-        <v/>
-      </c>
-      <c r="P7" s="13" t="str">
-        <f t="shared" ref="P7" si="18">IF(A8,IF(O7&gt;1,O7,IF(O7&gt;0.001,O7*1000,IF(O7&gt;0.000001,1000000*O7,IF(O7&gt;O7&gt;0.000000001,O7*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="14" t="str">
-        <f t="shared" ref="Q7" si="19">IF(A8,IF(G7,IF(O7&gt;1,"A",IF(O7&gt;0.001,"mA",IF(O7&gt;0.000001,"uA",IF(O7&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7">
+        <v>38.14697265625</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="13"/>
-        <v>45.7763671875</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="14"/>
-        <v>0.1007080078125</v>
+        <v>0.40283203125</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="6"/>
-        <v>8.9999999999999993E-3</v>
+        <v>0.1</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:33">
+      <c r="A8">
+        <v>1000</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" t="str">
+      <c r="C8">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>4.0283203125000002E-5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F8" t="str">
+        <v>25</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="4" t="str">
+        <v>4.0283203125E-8</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v/>
+        <v>40.283203125</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I8" t="str">
+        <v>nA</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="str">
+        <v>1E-4</v>
+      </c>
+      <c r="J8" s="4">
         <f t="shared" si="4"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="K8" t="str">
+        <f t="shared" si="9"/>
+        <v>uA</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>9.9959716796874998E-5</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M8" s="4" t="str">
+        <v>99.959716796875</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N8" t="str">
+        <v>uA</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="12" t="str">
+        <f t="shared" ref="R8" si="20">IF(A9,I9-F8,"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="14" t="str">
+        <f>IF(A9,IF(R8&gt;1,R8,IF(R8&gt;0.001,R8*1000,IF(R8&gt;0.000001,1000000*R8,IF(R8&gt;R8&gt;0.000000001,R8*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T8" s="13" t="str">
+        <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U8">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="11" t="str">
-        <f t="shared" ref="R8" si="20">IF(A9,I9-F8,"")</f>
-        <v/>
-      </c>
-      <c r="S8" s="13" t="str">
-        <f>IF(A9,IF(R8&gt;1,R8,IF(R8&gt;0.001,R8*1000,IF(R8&gt;0.000001,1000000*R8,IF(R8&gt;R8&gt;0.000000001,R8*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="T8" s="14" t="str">
-        <f>IF(A9,IF(J8,IF(R8&gt;1,"A",IF(R8&gt;0.001,"mA",IF(R8&gt;0.000001,"uA",IF(R8&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="U8" t="str">
+        <v>38.14697265625</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W8" s="4" t="str">
+        <v>4.0283203125E-2</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="X8" s="3" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="X8" s="3">
         <f t="shared" si="7"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="Y8" s="5"/>
     </row>
@@ -3531,10 +3546,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E9" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3560,7 +3571,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L9" t="str">
@@ -3568,34 +3579,34 @@
         <v/>
       </c>
       <c r="M9" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N9" t="str">
+      <c r="O9" s="12" t="str">
+        <f t="shared" ref="O9" si="21">IF(A10,I10-F9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="14" t="str">
+        <f t="shared" ref="P9" si="22">IF(A10,IF(O9&gt;1,O9,IF(O9&gt;0.001,O9*1000,IF(O9&gt;0.000001,1000000*O9,IF(O9&gt;O9&gt;0.000000001,O9*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="13" t="str">
+        <f t="shared" ref="Q9" si="23">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O9" s="11" t="str">
-        <f t="shared" ref="O9" si="21">IF(A10,I10-F9,"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="13" t="str">
-        <f t="shared" ref="P9" si="22">IF(A10,IF(O9&gt;1,O9,IF(O9&gt;0.001,O9*1000,IF(O9&gt;0.000001,1000000*O9,IF(O9&gt;O9&gt;0.000000001,O9*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="14" t="str">
-        <f t="shared" ref="Q9" si="23">IF(A10,IF(G9,IF(O9&gt;1,"A",IF(O9&gt;0.001,"mA",IF(O9&gt;0.000001,"uA",IF(O9&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-      <c r="U9" t="str">
+      <c r="V9" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W9" s="4" t="str">
@@ -3614,10 +3625,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E10" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3643,7 +3650,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L10" t="str">
@@ -3651,34 +3658,34 @@
         <v/>
       </c>
       <c r="M10" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N10" t="str">
+      <c r="O10" s="12"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="12" t="str">
+        <f t="shared" ref="R10" si="24">IF(A11,I11-F10,"")</f>
+        <v/>
+      </c>
+      <c r="S10" s="14" t="str">
+        <f>IF(A11,IF(R10&gt;1,R10,IF(R10&gt;0.001,R10*1000,IF(R10&gt;0.000001,1000000*R10,IF(R10&gt;R10&gt;0.000000001,R10*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T10" s="13" t="str">
+        <f>IF(A11,IF(J10,IF(R10&gt;1,"A",IF(R10&gt;0.001,"mA",IF(R10&gt;0.000001,"uA",IF(R10&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U10" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="11" t="str">
-        <f t="shared" ref="R10" si="24">IF(A11,I11-F10,"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="13" t="str">
-        <f>IF(A11,IF(R10&gt;1,R10,IF(R10&gt;0.001,R10*1000,IF(R10&gt;0.000001,1000000*R10,IF(R10&gt;R10&gt;0.000000001,R10*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="T10" s="14" t="str">
-        <f>IF(A11,IF(J10,IF(R10&gt;1,"A",IF(R10&gt;0.001,"mA",IF(R10&gt;0.000001,"uA",IF(R10&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="U10" t="str">
+      <c r="V10" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W10" s="4" t="str">
@@ -3697,10 +3704,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E11" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3726,7 +3729,7 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L11" t="str">
@@ -3734,34 +3737,34 @@
         <v/>
       </c>
       <c r="M11" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N11" t="str">
+      <c r="O11" s="12" t="str">
+        <f t="shared" ref="O11" si="27">IF(A12,I12-F11,"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="14" t="str">
+        <f t="shared" ref="P11" si="28">IF(A12,IF(O11&gt;1,O11,IF(O11&gt;0.001,O11*1000,IF(O11&gt;0.000001,1000000*O11,IF(O11&gt;O11&gt;0.000000001,O11*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="13" t="str">
+        <f t="shared" ref="Q11" si="29">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O11" s="11" t="str">
-        <f t="shared" ref="O11" si="27">IF(A12,I12-F11,"")</f>
-        <v/>
-      </c>
-      <c r="P11" s="13" t="str">
-        <f t="shared" ref="P11" si="28">IF(A12,IF(O11&gt;1,O11,IF(O11&gt;0.001,O11*1000,IF(O11&gt;0.000001,1000000*O11,IF(O11&gt;O11&gt;0.000000001,O11*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="14" t="str">
-        <f t="shared" ref="Q11" si="29">IF(A12,IF(G11,IF(O11&gt;1,"A",IF(O11&gt;0.001,"mA",IF(O11&gt;0.000001,"uA",IF(O11&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-      <c r="U11" t="str">
+      <c r="V11" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W11" s="4" t="str">
@@ -3780,10 +3783,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E12" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3809,7 +3808,7 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L12" t="str">
@@ -3817,34 +3816,34 @@
         <v/>
       </c>
       <c r="M12" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N12" t="str">
+      <c r="O12" s="12"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="12" t="str">
+        <f t="shared" ref="R12" si="30">IF(A13,I13-F12,"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="14" t="str">
+        <f>IF(A13,IF(R12&gt;1,R12,IF(R12&gt;0.001,R12*1000,IF(R12&gt;0.000001,1000000*R12,IF(R12&gt;R12&gt;0.000000001,R12*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T12" s="13" t="str">
+        <f>IF(A13,IF(J12,IF(R12&gt;1,"A",IF(R12&gt;0.001,"mA",IF(R12&gt;0.000001,"uA",IF(R12&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="11" t="str">
-        <f t="shared" ref="R12" si="30">IF(A13,I13-F12,"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="13" t="str">
-        <f>IF(A13,IF(R12&gt;1,R12,IF(R12&gt;0.001,R12*1000,IF(R12&gt;0.000001,1000000*R12,IF(R12&gt;R12&gt;0.000000001,R12*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="T12" s="14" t="str">
-        <f>IF(A13,IF(J12,IF(R12&gt;1,"A",IF(R12&gt;0.001,"mA",IF(R12&gt;0.000001,"uA",IF(R12&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="U12" t="str">
+      <c r="V12" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W12" s="4" t="str">
@@ -3863,10 +3862,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E13" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3892,7 +3887,7 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L13" t="str">
@@ -3900,34 +3895,34 @@
         <v/>
       </c>
       <c r="M13" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N13" t="str">
+      <c r="O13" s="12" t="str">
+        <f t="shared" ref="O13" si="31">IF(A14,I14-F13,"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="14" t="str">
+        <f t="shared" ref="P13" si="32">IF(A14,IF(O13&gt;1,O13,IF(O13&gt;0.001,O13*1000,IF(O13&gt;0.000001,1000000*O13,IF(O13&gt;O13&gt;0.000000001,O13*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="13" t="str">
+        <f t="shared" ref="Q13" si="33">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
+      <c r="U13" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O13" s="11" t="str">
-        <f t="shared" ref="O13" si="31">IF(A14,I14-F13,"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="13" t="str">
-        <f t="shared" ref="P13" si="32">IF(A14,IF(O13&gt;1,O13,IF(O13&gt;0.001,O13*1000,IF(O13&gt;0.000001,1000000*O13,IF(O13&gt;O13&gt;0.000000001,O13*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="14" t="str">
-        <f t="shared" ref="Q13" si="33">IF(A14,IF(G13,IF(O13&gt;1,"A",IF(O13&gt;0.001,"mA",IF(O13&gt;0.000001,"uA",IF(O13&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" t="str">
+      <c r="V13" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W13" s="4" t="str">
@@ -3946,10 +3941,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E14" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3975,7 +3966,7 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L14" t="str">
@@ -3983,34 +3974,34 @@
         <v/>
       </c>
       <c r="M14" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N14" t="str">
+      <c r="O14" s="12"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12" t="str">
+        <f t="shared" ref="R14" si="35">IF(A15,I15-F14,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="14" t="str">
+        <f>IF(A15,IF(R14&gt;1,R14,IF(R14&gt;0.001,R14*1000,IF(R14&gt;0.000001,1000000*R14,IF(R14&gt;R14&gt;0.000000001,R14*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="13" t="str">
+        <f>IF(A15,IF(J14,IF(R14&gt;1,"A",IF(R14&gt;0.001,"mA",IF(R14&gt;0.000001,"uA",IF(R14&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U14" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="11" t="str">
-        <f t="shared" ref="R14" si="35">IF(A15,I15-F14,"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="13" t="str">
-        <f>IF(A15,IF(R14&gt;1,R14,IF(R14&gt;0.001,R14*1000,IF(R14&gt;0.000001,1000000*R14,IF(R14&gt;R14&gt;0.000000001,R14*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="T14" s="14" t="str">
-        <f>IF(A15,IF(J14,IF(R14&gt;1,"A",IF(R14&gt;0.001,"mA",IF(R14&gt;0.000001,"uA",IF(R14&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="U14" t="str">
+      <c r="V14" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W14" s="4" t="str">
@@ -4029,10 +4020,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E15" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4058,7 +4045,7 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L15" t="str">
@@ -4066,34 +4053,34 @@
         <v/>
       </c>
       <c r="M15" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N15" t="str">
+      <c r="O15" s="12" t="str">
+        <f t="shared" ref="O15" si="36">IF(A16,I16-F15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="14" t="str">
+        <f t="shared" ref="P15" si="37">IF(A16,IF(O15&gt;1,O15,IF(O15&gt;0.001,O15*1000,IF(O15&gt;0.000001,1000000*O15,IF(O15&gt;O15&gt;0.000000001,O15*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="13" t="str">
+        <f t="shared" ref="Q15" si="38">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="13"/>
+      <c r="U15" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O15" s="11" t="str">
-        <f t="shared" ref="O15" si="36">IF(A16,I16-F15,"")</f>
-        <v/>
-      </c>
-      <c r="P15" s="13" t="str">
-        <f t="shared" ref="P15" si="37">IF(A16,IF(O15&gt;1,O15,IF(O15&gt;0.001,O15*1000,IF(O15&gt;0.000001,1000000*O15,IF(O15&gt;O15&gt;0.000000001,O15*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="14" t="str">
-        <f t="shared" ref="Q15" si="38">IF(A16,IF(G15,IF(O15&gt;1,"A",IF(O15&gt;0.001,"mA",IF(O15&gt;0.000001,"uA",IF(O15&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="U15" t="str">
+      <c r="V15" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W15" s="4" t="str">
@@ -4112,10 +4099,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E16" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4141,7 +4124,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L16" t="str">
@@ -4149,34 +4132,34 @@
         <v/>
       </c>
       <c r="M16" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" s="12"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="12" t="str">
+        <f t="shared" ref="R16" si="39">IF(A17,I17-F16,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="14" t="str">
+        <f>IF(A17,IF(R16&gt;1,R16,IF(R16&gt;0.001,R16*1000,IF(R16&gt;0.000001,1000000*R16,IF(R16&gt;R16&gt;0.000000001,R16*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="13" t="str">
+        <f>IF(A17,IF(J16,IF(R16&gt;1,"A",IF(R16&gt;0.001,"mA",IF(R16&gt;0.000001,"uA",IF(R16&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="11" t="str">
-        <f t="shared" ref="R16" si="39">IF(A17,I17-F16,"")</f>
-        <v/>
-      </c>
-      <c r="S16" s="13" t="str">
-        <f>IF(A17,IF(R16&gt;1,R16,IF(R16&gt;0.001,R16*1000,IF(R16&gt;0.000001,1000000*R16,IF(R16&gt;R16&gt;0.000000001,R16*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="T16" s="14" t="str">
-        <f>IF(A17,IF(J16,IF(R16&gt;1,"A",IF(R16&gt;0.001,"mA",IF(R16&gt;0.000001,"uA",IF(R16&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="U16" t="str">
+      <c r="V16" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W16" s="4" t="str">
@@ -4195,10 +4178,6 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
       <c r="E17" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -4224,7 +4203,7 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L17" t="str">
@@ -4232,34 +4211,34 @@
         <v/>
       </c>
       <c r="M17" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N17" t="str">
+      <c r="O17" s="12" t="str">
+        <f t="shared" ref="O17" si="40">IF(A18,I18-F17,"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="14" t="str">
+        <f t="shared" ref="P17" si="41">IF(A18,IF(O17&gt;1,O17,IF(O17&gt;0.001,O17*1000,IF(O17&gt;0.000001,1000000*O17,IF(O17&gt;O17&gt;0.000000001,O17*1000000000,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="13" t="str">
+        <f t="shared" ref="Q17" si="42">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
+        <v/>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="13"/>
+      <c r="U17" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O17" s="11" t="str">
-        <f t="shared" ref="O17" si="40">IF(A18,I18-F17,"")</f>
-        <v/>
-      </c>
-      <c r="P17" s="13" t="str">
-        <f t="shared" ref="P17" si="41">IF(A18,IF(O17&gt;1,O17,IF(O17&gt;0.001,O17*1000,IF(O17&gt;0.000001,1000000*O17,IF(O17&gt;O17&gt;0.000000001,O17*1000000000,"")))),"")</f>
-        <v/>
-      </c>
-      <c r="Q17" s="14" t="str">
-        <f t="shared" ref="Q17" si="42">IF(A18,IF(G17,IF(O17&gt;1,"A",IF(O17&gt;0.001,"mA",IF(O17&gt;0.000001,"uA",IF(O17&gt;0.000000001,"nA","")))),""),"")</f>
-        <v/>
-      </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
-      <c r="U17" t="str">
+      <c r="V17" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W17" s="4" t="str">
@@ -4279,7 +4258,7 @@
         <v/>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D6:D18" si="43">IF(A18,3/E18,"")</f>
         <v/>
       </c>
       <c r="E18" t="str">
@@ -4307,7 +4286,7 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L18" t="str">
@@ -4315,23 +4294,23 @@
         <v/>
       </c>
       <c r="M18" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="10"/>
       <c r="U18" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="V18" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="V18" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W18" s="4" t="str">
@@ -4471,6 +4450,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="O13:O14"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:P18"/>
@@ -4487,41 +4501,6 @@
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:T3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
